--- a/Features/label_4_features.xlsx
+++ b/Features/label_4_features.xlsx
@@ -1,37 +1,164 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Python\2020\search_happiness\Features\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6390"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+  <si>
+    <t>columns</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>religion</t>
+  </si>
+  <si>
+    <t>political</t>
+  </si>
+  <si>
+    <t>property_2</t>
+  </si>
+  <si>
+    <t>property_8</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>depression</t>
+  </si>
+  <si>
+    <t>media_5</t>
+  </si>
+  <si>
+    <t>leisure_1</t>
+  </si>
+  <si>
+    <t>leisure_3</t>
+  </si>
+  <si>
+    <t>leisure_6</t>
+  </si>
+  <si>
+    <t>leisure_8</t>
+  </si>
+  <si>
+    <t>leisure_9</t>
+  </si>
+  <si>
+    <t>leisure_10</t>
+  </si>
+  <si>
+    <t>equity</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>class_10_after</t>
+  </si>
+  <si>
+    <t>work_exper</t>
+  </si>
+  <si>
+    <t>insur_3</t>
+  </si>
+  <si>
+    <t>family_status</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>status_peer</t>
+  </si>
+  <si>
+    <t>status_3_before</t>
+  </si>
+  <si>
+    <t>inc_ability</t>
+  </si>
+  <si>
+    <t>trust_7</t>
+  </si>
+  <si>
+    <t>trust_13</t>
+  </si>
+  <si>
+    <t>neighbor_familiarity</t>
+  </si>
+  <si>
+    <t>s_work_status_equal</t>
+  </si>
+  <si>
+    <t>second_marital</t>
+  </si>
+  <si>
+    <t>hukou_4</t>
+  </si>
+  <si>
+    <t>work_exper_2</t>
+  </si>
+  <si>
+    <t>marital_3</t>
+  </si>
+  <si>
+    <t>marital_6</t>
+  </si>
+  <si>
+    <t>hukou_loc_3.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,10 +173,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -57,15 +192,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -353,272 +497,198 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>columns</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>city</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>religion</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>political</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>property_2</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>property_8</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>health</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>depression</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>media_5</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>leisure_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>leisure_3</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>leisure_6</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>leisure_8</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>leisure_9</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>leisure_10</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>equity</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>class</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>class_10_after</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>work_exper</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>insur_3</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>family_status</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>house</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>daughter</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>status_peer</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>status_3_before</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>inc_ability</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>trust_7</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>trust_13</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>neighbor_familiarity</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>s_work_status_equal</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>second_marital</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>hukou_4</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>hukou_loc_3.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>work_exper_2</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>marital_3</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>marital_6</t>
-        </is>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>